--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_17.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_17.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_0</t>
+          <t>model_1_17_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9622304764594207</v>
+        <v>0.8483571098815799</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7757611343044529</v>
+        <v>0.6355170330909033</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7466613062746779</v>
+        <v>0.7661686620456946</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9961729370893622</v>
+        <v>0.6361476683424165</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1572166500643128</v>
+        <v>0.3594228613322709</v>
       </c>
       <c r="G2" t="n">
-        <v>1.499486327431159</v>
+        <v>2.437299278010872</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9061778180340136</v>
+        <v>0.8364011375425637</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01348152814599541</v>
+        <v>0.3638601469007189</v>
       </c>
       <c r="J2" t="n">
-        <v>1.511386966919113</v>
+        <v>1.333882066948581</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3965055485920883</v>
+        <v>0.5995188581956958</v>
       </c>
       <c r="L2" t="n">
-        <v>3.417249506597074</v>
+        <v>0.7935075538813002</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4027501146222796</v>
+        <v>0.6089606809132875</v>
       </c>
       <c r="N2" t="n">
-        <v>133.7002609763123</v>
+        <v>36.04651139387749</v>
       </c>
       <c r="O2" t="n">
-        <v>275.0354335195287</v>
+        <v>73.0110949821033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_1</t>
+          <t>model_1_17_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9629481119466423</v>
+        <v>0.8482338571295628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7756251517816514</v>
+        <v>0.6355045916407942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7475418817127601</v>
+        <v>0.7662784457417796</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9960500493374551</v>
+        <v>0.6304449750037864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1542294731901581</v>
+        <v>0.3597149940973642</v>
       </c>
       <c r="G3" t="n">
-        <v>1.500395643187275</v>
+        <v>2.43738247404504</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9030280507506909</v>
+        <v>0.8360084476272919</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01391442269850639</v>
+        <v>0.3695629627284224</v>
       </c>
       <c r="J3" t="n">
-        <v>1.497552109578539</v>
+        <v>1.331290972664465</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3927206044889396</v>
+        <v>0.5997624480553648</v>
       </c>
       <c r="L3" t="n">
-        <v>3.371320835414892</v>
+        <v>0.7933397203466387</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3989055614330623</v>
+        <v>0.6092081070697457</v>
       </c>
       <c r="N3" t="n">
-        <v>133.7386273999883</v>
+        <v>36.04488648828278</v>
       </c>
       <c r="O3" t="n">
-        <v>275.0737999432047</v>
+        <v>73.00947007650861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_2</t>
+          <t>model_1_17_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9635800990115284</v>
+        <v>0.8481993072515321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7749400567392279</v>
+        <v>0.6354855883419489</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7484320994094111</v>
+        <v>0.7662958001503811</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9956932718896434</v>
+        <v>0.6293561458078927</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1515988101605172</v>
+        <v>0.359796883963818</v>
       </c>
       <c r="G4" t="n">
-        <v>1.504976876890532</v>
+        <v>2.437509549191921</v>
       </c>
       <c r="H4" t="n">
-        <v>0.899843793667558</v>
+        <v>0.8359463719139907</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01517123642664268</v>
+        <v>0.3706518153114547</v>
       </c>
       <c r="J4" t="n">
-        <v>1.485950135106072</v>
+        <v>1.331844337623303</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3893569187269147</v>
+        <v>0.5998307127547055</v>
       </c>
       <c r="L4" t="n">
-        <v>3.330873663262182</v>
+        <v>0.793292673704214</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3954889009827376</v>
+        <v>0.6092774468698613</v>
       </c>
       <c r="N4" t="n">
-        <v>133.7730353087001</v>
+        <v>36.04443123594127</v>
       </c>
       <c r="O4" t="n">
-        <v>275.1082078519165</v>
+        <v>73.0090148241671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_3</t>
+          <t>model_1_17_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9642606318599305</v>
+        <v>0.8479429277473648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7747207023598717</v>
+        <v>0.635416383857325</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7492713853216565</v>
+        <v>0.7663284207067516</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9954810400561604</v>
+        <v>0.6203796421232124</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1487660740109716</v>
+        <v>0.3604045527763999</v>
       </c>
       <c r="G5" t="n">
-        <v>1.506443700635322</v>
+        <v>2.437972319899258</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8968417166240499</v>
+        <v>0.8358296900753022</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01591886182590716</v>
+        <v>0.3796285118039108</v>
       </c>
       <c r="J5" t="n">
-        <v>1.472541984569551</v>
+        <v>1.332592257199154</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3857020534181424</v>
+        <v>0.6003370326544915</v>
       </c>
       <c r="L5" t="n">
-        <v>3.287319560964448</v>
+        <v>0.792943561187901</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3917764751988771</v>
+        <v>0.6097917408019347</v>
       </c>
       <c r="N5" t="n">
-        <v>133.8107603596331</v>
+        <v>36.04105624152563</v>
       </c>
       <c r="O5" t="n">
-        <v>275.1459329028496</v>
+        <v>73.00563982975146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_4</t>
+          <t>model_1_17_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9649232901552484</v>
+        <v>0.8461073641331036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7745627984536787</v>
+        <v>0.63535586219547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7500128601897441</v>
+        <v>0.7555706723614742</v>
       </c>
       <c r="E6" t="n">
-        <v>0.995304716547678</v>
+        <v>0.7564752782106831</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1460077411658336</v>
+        <v>0.3647551921362799</v>
       </c>
       <c r="G6" t="n">
-        <v>1.507499604783115</v>
+        <v>2.438377028530759</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8941895040140834</v>
+        <v>0.8743095321362704</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01653999359141823</v>
+        <v>0.2435299524962402</v>
       </c>
       <c r="J6" t="n">
-        <v>1.459237556050154</v>
+        <v>1.36904700613675</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3821095931350503</v>
+        <v>0.6039496602667146</v>
       </c>
       <c r="L6" t="n">
-        <v>3.244909430064105</v>
+        <v>0.7904440703089071</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3881274372574691</v>
+        <v>0.6134612636877476</v>
       </c>
       <c r="N6" t="n">
-        <v>133.8481912739912</v>
+        <v>36.0170577137996</v>
       </c>
       <c r="O6" t="n">
-        <v>275.1833638172076</v>
+        <v>72.98164130202542</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_5</t>
+          <t>model_1_17_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9655680311324016</v>
+        <v>0.8489124762872281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7744236411243767</v>
+        <v>0.6352504106535889</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7507385793753607</v>
+        <v>0.7650644789453389</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9951172140632963</v>
+        <v>0.6661346184266022</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1433239896358911</v>
+        <v>0.3581065359677909</v>
       </c>
       <c r="G7" t="n">
-        <v>1.508430150484918</v>
+        <v>2.439082183476878</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8915936485667491</v>
+        <v>0.8403507364683209</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0172005053414627</v>
+        <v>0.3338725527219779</v>
       </c>
       <c r="J7" t="n">
-        <v>1.446010727283863</v>
+        <v>1.328997193689685</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3785815495185827</v>
+        <v>0.5984200330602167</v>
       </c>
       <c r="L7" t="n">
-        <v>3.203646007526295</v>
+        <v>0.7942637974975021</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3845438304807919</v>
+        <v>0.6078445503803468</v>
       </c>
       <c r="N7" t="n">
-        <v>133.8852950993486</v>
+        <v>36.05384950069862</v>
       </c>
       <c r="O7" t="n">
-        <v>275.220467642565</v>
+        <v>73.01843308892444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_6</t>
+          <t>model_1_17_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9661947856241937</v>
+        <v>0.8462450239618555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7742876463367245</v>
+        <v>0.6351795918900993</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7514220481210638</v>
+        <v>0.7559412500910193</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9949000979654172</v>
+        <v>0.7539799611228265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1407151073314465</v>
+        <v>0.3644289118240154</v>
       </c>
       <c r="G8" t="n">
-        <v>1.509339548256147</v>
+        <v>2.439555748874423</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8891489204931637</v>
+        <v>0.8729839970850191</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01796533645421263</v>
+        <v>0.2460253231814164</v>
       </c>
       <c r="J8" t="n">
-        <v>1.432969547602153</v>
+        <v>1.37213699695994</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3751201238689368</v>
+        <v>0.6036794777230839</v>
       </c>
       <c r="L8" t="n">
-        <v>3.163533720051603</v>
+        <v>0.7906315219906118</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3810278908373202</v>
+        <v>0.6131868260391382</v>
       </c>
       <c r="N8" t="n">
-        <v>133.9220358959575</v>
+        <v>36.01884755168701</v>
       </c>
       <c r="O8" t="n">
-        <v>275.2572084391738</v>
+        <v>72.98343113991282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_7</t>
+          <t>model_1_17_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.966811092807996</v>
+        <v>0.847898011672197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7741658330655878</v>
+        <v>0.6351429973336425</v>
       </c>
       <c r="D9" t="n">
-        <v>0.752081304522653</v>
+        <v>0.7663751384956072</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9946901457133279</v>
+        <v>0.6101803250829201</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1381497122254195</v>
+        <v>0.3605110125269628</v>
       </c>
       <c r="G9" t="n">
-        <v>1.510154114161136</v>
+        <v>2.439800456841952</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8867907985705618</v>
+        <v>0.8356625832534186</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01870493161163457</v>
+        <v>0.3898280479169849</v>
       </c>
       <c r="J9" t="n">
-        <v>1.41993539603315</v>
+        <v>1.273059699076566</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3716849636794842</v>
+        <v>0.6004256927605304</v>
       </c>
       <c r="L9" t="n">
-        <v>3.124090060288253</v>
+        <v>0.7928823988727789</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3775386303087842</v>
+        <v>0.6098817972160161</v>
       </c>
       <c r="N9" t="n">
-        <v>133.9588346213475</v>
+        <v>36.04046554959742</v>
       </c>
       <c r="O9" t="n">
-        <v>275.2940071645639</v>
+        <v>73.00504913782325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_8</t>
+          <t>model_1_17_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9674190319715509</v>
+        <v>0.848792126395311</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7740880049958746</v>
+        <v>0.6348775760824308</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7527155486497706</v>
+        <v>0.7628826718491246</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9945041841390933</v>
+        <v>0.6965106936967715</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1356191492270723</v>
+        <v>0.3583917883952544</v>
       </c>
       <c r="G10" t="n">
-        <v>1.510674550821674</v>
+        <v>2.441575329970957</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8845221441034494</v>
+        <v>0.8481549339430352</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01936001522422674</v>
+        <v>0.3034958249991701</v>
       </c>
       <c r="J10" t="n">
-        <v>1.406833660130561</v>
+        <v>1.345325019094751</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3682650529538097</v>
+        <v>0.5986583235830388</v>
       </c>
       <c r="L10" t="n">
-        <v>3.085181953820744</v>
+        <v>0.7940999167936149</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3740648594078368</v>
+        <v>0.6080865937407001</v>
       </c>
       <c r="N10" t="n">
-        <v>133.995809389915</v>
+        <v>36.05225701997488</v>
       </c>
       <c r="O10" t="n">
-        <v>275.3309819331314</v>
+        <v>73.0168406082007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_9</t>
+          <t>model_1_17_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9680106927682082</v>
+        <v>0.8487013878559604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7739331211846173</v>
+        <v>0.6348280223138476</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7532905371099613</v>
+        <v>0.7625255971766763</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9942687017852131</v>
+        <v>0.700308548368183</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1331563453655173</v>
+        <v>0.3586068562129479</v>
       </c>
       <c r="G11" t="n">
-        <v>1.511710259580726</v>
+        <v>2.441906696249648</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8824654437210939</v>
+        <v>0.8494321693420036</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02018954482848193</v>
+        <v>0.2996978887530233</v>
       </c>
       <c r="J11" t="n">
-        <v>1.393981188688065</v>
+        <v>1.349761181049292</v>
       </c>
       <c r="K11" t="n">
-        <v>0.364905940436049</v>
+        <v>0.5988379214887346</v>
       </c>
       <c r="L11" t="n">
-        <v>3.047315662834677</v>
+        <v>0.7939763579315205</v>
       </c>
       <c r="M11" t="n">
-        <v>0.370652844225802</v>
+        <v>0.6082690201338785</v>
       </c>
       <c r="N11" t="n">
-        <v>134.0324626241793</v>
+        <v>36.05105719720946</v>
       </c>
       <c r="O11" t="n">
-        <v>275.3676351673957</v>
+        <v>73.01564078543528</v>
       </c>
     </row>
   </sheetData>
